--- a/nke_stock_yearly_earnings_per_share_df.xlsx
+++ b/nke_stock_yearly_earnings_per_share_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -40,19 +40,7 @@
     <t>NKE</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>2016</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>(+)</t>
@@ -416,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -455,68 +443,17 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2">
+        <v>2.21</v>
+      </c>
+      <c r="E2">
+        <v>1701357466.06</v>
+      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1159</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>2.21</v>
-      </c>
-      <c r="E5">
-        <v>1701357466.06</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
